--- a/Framework_DX11/Client/Bin/DataFiles/Shop_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Shop_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B9B34D-AD99-40D8-A571-7DD8EE8FF0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8DCF37-5AC7-42A8-8645-DA9F8D7C162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5772DE76-B332-4BA5-9C84-B7D42151DD51}"/>
+    <workbookView xWindow="3285" yWindow="1665" windowWidth="17730" windowHeight="11385" xr2:uid="{5772DE76-B332-4BA5-9C84-B7D42151DD51}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Info" sheetId="1" r:id="rId1"/>
@@ -1557,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47DF95E-1ABF-43FE-9DDA-ACA738CB3E59}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1835,7 +1835,172 @@
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>233</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>VLOOKUP(A19,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>아크 공간장갑 라이너 +1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>234</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>VLOOKUP(A20,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>아크 공간장갑 라이너 +2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>186</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>VLOOKUP(A21,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>벨포드 충격 카트리지</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>187</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>VLOOKUP(A22,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>벨포드 충격 카트리지 +1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>151</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>VLOOKUP(A23,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 표준 방열 컨버터 +2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>152</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>VLOOKUP(A24,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 표준 절연 컨버터</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>136</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>VLOOKUP(A25,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>라다 F350 프레임</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>137</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>VLOOKUP(A26,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>라다 F350 프레임 +1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>311</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>VLOOKUP(A27,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>보름달 월석</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>312</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>VLOOKUP(A28,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>불굴의 소원석</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>330</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>VLOOKUP(A29,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>초승달 월석</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Shop_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Shop_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8DCF37-5AC7-42A8-8645-DA9F8D7C162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F3D066-DF27-4488-AA2E-95B79BE7A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1665" windowWidth="17730" windowHeight="11385" xr2:uid="{5772DE76-B332-4BA5-9C84-B7D42151DD51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5772DE76-B332-4BA5-9C84-B7D42151DD51}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Info" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,6 +1168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,11 +1229,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1557,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47DF95E-1ABF-43FE-9DDA-ACA738CB3E59}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1612,7 @@
         <v>고양이 가루</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -1622,7 +1642,7 @@
         <v>모나드의 등불</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -2003,8 +2023,356 @@
         <v>200</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>87</v>
+      </c>
+      <c r="B30" s="11" t="str">
+        <f>VLOOKUP(A30,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>꿰뚫는 증오의 아뮬렛</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>88</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f>VLOOKUP(A31,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>도약의 아뮬렛</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>90</v>
+      </c>
+      <c r="B32" s="11" t="str">
+        <f>VLOOKUP(A32,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>베테랑의 아뮬렛</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>94</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f>VLOOKUP(A33,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>불굴의 아뮬렛</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>101</v>
+      </c>
+      <c r="B34" s="11" t="str">
+        <f>VLOOKUP(A34,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>생명의 아뮬렛</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>111</v>
+      </c>
+      <c r="B35" s="11" t="str">
+        <f>VLOOKUP(A35,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>재충전의 아뮬렛</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>113</v>
+      </c>
+      <c r="B36" s="11" t="str">
+        <f>VLOOKUP(A36,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>철벽의 아뮬렛</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>123</v>
+      </c>
+      <c r="B37" s="11" t="str">
+        <f>VLOOKUP(A37,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 강화 프레임</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>130</v>
+      </c>
+      <c r="B38" s="11" t="str">
+        <f>VLOOKUP(A38,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>라다 F150 프레임</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>139</v>
+      </c>
+      <c r="B39" s="11" t="str">
+        <f>VLOOKUP(A39,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>아크 중량 프레임</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>145</v>
+      </c>
+      <c r="B40" s="11" t="str">
+        <f>VLOOKUP(A40,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 구세대 컨버터</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>146</v>
+      </c>
+      <c r="B41" s="11" t="str">
+        <f>VLOOKUP(A41,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 표준 내식 컨버터</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>155</v>
+      </c>
+      <c r="B42" s="11" t="str">
+        <f>VLOOKUP(A42,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>라다 대용량 내식 컨버터</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>164</v>
+      </c>
+      <c r="B43" s="11" t="str">
+        <f>VLOOKUP(A43,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>벨포드 만능 내식 컨버터</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>173</v>
+      </c>
+      <c r="B44" s="11" t="str">
+        <f>VLOOKUP(A44,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 초기형 카트리지</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>174</v>
+      </c>
+      <c r="B45" s="11" t="str">
+        <f>VLOOKUP(A45,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>라다 붕괴 카트리지</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>183</v>
+      </c>
+      <c r="B46" s="11" t="str">
+        <f>VLOOKUP(A46,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>벨포드 붕괴 카트리지</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>192</v>
+      </c>
+      <c r="B47" s="11" t="str">
+        <f>VLOOKUP(A47,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>아크 붕괴 카트리지</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>201</v>
+      </c>
+      <c r="B48" s="11" t="str">
+        <f>VLOOKUP(A48,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 강화섬유 라이너</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>210</v>
+      </c>
+      <c r="B49" s="11" t="str">
+        <f>VLOOKUP(A49,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>공방연합 인증 라이너</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>211</v>
+      </c>
+      <c r="B50" s="11" t="str">
+        <f>VLOOKUP(A50,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>라다 강화섬유 라이너</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>220</v>
+      </c>
+      <c r="B51" s="11" t="str">
+        <f>VLOOKUP(A51,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>벨포드 강화섬유 라이너</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>229</v>
+      </c>
+      <c r="B52" s="11" t="str">
+        <f>VLOOKUP(A52,Sheet2!$A$3:$B$343,2,FALSE)</f>
+        <v>아크 강화섬유 라이너</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B52">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Framework_DX11/Client/Bin/DataFiles/Shop_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Shop_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F3D066-DF27-4488-AA2E-95B79BE7A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8882289B-D207-441C-81C3-05F6A1EC01BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5772DE76-B332-4BA5-9C84-B7D42151DD51}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5772DE76-B332-4BA5-9C84-B7D42151DD51}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Info" sheetId="1" r:id="rId1"/>
@@ -1577,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47DF95E-1ABF-43FE-9DDA-ACA738CB3E59}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1635,89 +1635,89 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>VLOOKUP(A4,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>모나드의 등불</v>
+        <v>베니니의 긴급 수리 도구</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>VLOOKUP(A5,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>문페이즈 회중시계</v>
+        <v>빛나는 에르고 결정석</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>VLOOKUP(A6,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>베니니의 긴급 수리 도구</v>
+        <v>빛나는 에르고 덩어리</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(A7,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>빛나는 에르고 결정석</v>
+        <v>빛나는 에르고 조각</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>VLOOKUP(A8,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>빛나는 에르고 덩어리</v>
+        <v>속성 저항 앰플</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>VLOOKUP(A9,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>빛나는 에르고 조각</v>
+        <v>속성 정화 앰플</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -1725,71 +1725,71 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B10" s="4" t="str">
         <f>VLOOKUP(A10,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>속성 저항 앰플</v>
+        <v>제미니의 긴급 보호</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>VLOOKUP(A11,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>속성 정화 앰플</v>
+        <v>제미니의 철벽 수호</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>VLOOKUP(A12,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>제미니의 긴급 보호</v>
+        <v>클러스터 수류탄</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>VLOOKUP(A13,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>제미니의 철벽 수호</v>
+        <v>테르밋</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>VLOOKUP(A14,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>클러스터 수류탄</v>
+        <v>톱날</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -1800,11 +1800,11 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>VLOOKUP(A15,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>테르밋</v>
+        <v>투척용 전지</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -1815,221 +1815,221 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>VLOOKUP(A16,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>톱날</v>
+        <v>코어</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>VLOOKUP(A17,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>투척용 전지</v>
+        <v>보름달 월석</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>VLOOKUP(A18,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>코어</v>
+        <v>불굴의 소원석</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>VLOOKUP(A19,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>아크 공간장갑 라이너 +1</v>
+        <v>초승달 월석</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>234</v>
-      </c>
-      <c r="B20" s="4" t="str">
+      <c r="A20" s="11">
+        <v>87</v>
+      </c>
+      <c r="B20" s="11" t="str">
         <f>VLOOKUP(A20,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>아크 공간장갑 라이너 +2</v>
+        <v>꿰뚫는 증오의 아뮬렛</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>186</v>
-      </c>
-      <c r="B21" s="4" t="str">
+      <c r="A21" s="11">
+        <v>88</v>
+      </c>
+      <c r="B21" s="11" t="str">
         <f>VLOOKUP(A21,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>벨포드 충격 카트리지</v>
+        <v>도약의 아뮬렛</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>187</v>
-      </c>
-      <c r="B22" s="4" t="str">
+      <c r="A22" s="11">
+        <v>90</v>
+      </c>
+      <c r="B22" s="11" t="str">
         <f>VLOOKUP(A22,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>벨포드 충격 카트리지 +1</v>
+        <v>베테랑의 아뮬렛</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D22" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>151</v>
-      </c>
-      <c r="B23" s="4" t="str">
+      <c r="A23" s="11">
+        <v>94</v>
+      </c>
+      <c r="B23" s="11" t="str">
         <f>VLOOKUP(A23,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 표준 방열 컨버터 +2</v>
+        <v>불굴의 아뮬렛</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D23" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>152</v>
-      </c>
-      <c r="B24" s="4" t="str">
+      <c r="A24" s="11">
+        <v>101</v>
+      </c>
+      <c r="B24" s="11" t="str">
         <f>VLOOKUP(A24,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 표준 절연 컨버터</v>
+        <v>생명의 아뮬렛</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>136</v>
-      </c>
-      <c r="B25" s="4" t="str">
+      <c r="A25" s="11">
+        <v>111</v>
+      </c>
+      <c r="B25" s="11" t="str">
         <f>VLOOKUP(A25,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>라다 F350 프레임</v>
+        <v>재충전의 아뮬렛</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>137</v>
-      </c>
-      <c r="B26" s="4" t="str">
+      <c r="A26" s="11">
+        <v>113</v>
+      </c>
+      <c r="B26" s="11" t="str">
         <f>VLOOKUP(A26,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>라다 F350 프레임 +1</v>
+        <v>철벽의 아뮬렛</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>311</v>
-      </c>
-      <c r="B27" s="4" t="str">
+      <c r="A27" s="11">
+        <v>123</v>
+      </c>
+      <c r="B27" s="11" t="str">
         <f>VLOOKUP(A27,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>보름달 월석</v>
+        <v>공방연합 강화 프레임</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D27" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>312</v>
-      </c>
-      <c r="B28" s="4" t="str">
+      <c r="A28" s="11">
+        <v>130</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f>VLOOKUP(A28,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>불굴의 소원석</v>
+        <v>라다 F150 프레임</v>
       </c>
       <c r="C28" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>330</v>
-      </c>
-      <c r="B29" s="4" t="str">
+      <c r="A29" s="11">
+        <v>139</v>
+      </c>
+      <c r="B29" s="11" t="str">
         <f>VLOOKUP(A29,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>초승달 월석</v>
+        <v>아크 중량 프레임</v>
       </c>
       <c r="C29" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D29" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="B30" s="11" t="str">
         <f>VLOOKUP(A30,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>꿰뚫는 증오의 아뮬렛</v>
+        <v>공방연합 구세대 컨버터</v>
       </c>
       <c r="C30" s="1">
         <v>-1</v>
@@ -2040,11 +2040,11 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B31" s="11" t="str">
         <f>VLOOKUP(A31,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>도약의 아뮬렛</v>
+        <v>공방연합 표준 내식 컨버터</v>
       </c>
       <c r="C31" s="1">
         <v>-1</v>
@@ -2055,11 +2055,11 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B32" s="11" t="str">
         <f>VLOOKUP(A32,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>베테랑의 아뮬렛</v>
+        <v>라다 대용량 내식 컨버터</v>
       </c>
       <c r="C32" s="1">
         <v>-1</v>
@@ -2070,11 +2070,11 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B33" s="11" t="str">
         <f>VLOOKUP(A33,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>불굴의 아뮬렛</v>
+        <v>벨포드 만능 내식 컨버터</v>
       </c>
       <c r="C33" s="1">
         <v>-1</v>
@@ -2085,11 +2085,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="B34" s="11" t="str">
         <f>VLOOKUP(A34,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>생명의 아뮬렛</v>
+        <v>공방연합 초기형 카트리지</v>
       </c>
       <c r="C34" s="1">
         <v>-1</v>
@@ -2100,11 +2100,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="B35" s="11" t="str">
         <f>VLOOKUP(A35,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>재충전의 아뮬렛</v>
+        <v>라다 붕괴 카트리지</v>
       </c>
       <c r="C35" s="1">
         <v>-1</v>
@@ -2115,11 +2115,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="B36" s="11" t="str">
         <f>VLOOKUP(A36,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>철벽의 아뮬렛</v>
+        <v>벨포드 붕괴 카트리지</v>
       </c>
       <c r="C36" s="1">
         <v>-1</v>
@@ -2130,11 +2130,11 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="B37" s="11" t="str">
         <f>VLOOKUP(A37,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 강화 프레임</v>
+        <v>아크 붕괴 카트리지</v>
       </c>
       <c r="C37" s="1">
         <v>-1</v>
@@ -2145,11 +2145,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B38" s="11" t="str">
         <f>VLOOKUP(A38,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>라다 F150 프레임</v>
+        <v>공방연합 강화섬유 라이너</v>
       </c>
       <c r="C38" s="1">
         <v>-1</v>
@@ -2160,11 +2160,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="B39" s="11" t="str">
         <f>VLOOKUP(A39,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>아크 중량 프레임</v>
+        <v>공방연합 인증 라이너</v>
       </c>
       <c r="C39" s="1">
         <v>-1</v>
@@ -2175,11 +2175,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="B40" s="11" t="str">
         <f>VLOOKUP(A40,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 구세대 컨버터</v>
+        <v>라다 강화섬유 라이너</v>
       </c>
       <c r="C40" s="1">
         <v>-1</v>
@@ -2190,11 +2190,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="B41" s="11" t="str">
         <f>VLOOKUP(A41,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 표준 내식 컨버터</v>
+        <v>벨포드 강화섬유 라이너</v>
       </c>
       <c r="C41" s="1">
         <v>-1</v>
@@ -2205,11 +2205,11 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="B42" s="11" t="str">
         <f>VLOOKUP(A42,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>라다 대용량 내식 컨버터</v>
+        <v>아크 강화섬유 라이너</v>
       </c>
       <c r="C42" s="1">
         <v>-1</v>
@@ -2218,160 +2218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>164</v>
-      </c>
-      <c r="B43" s="11" t="str">
-        <f>VLOOKUP(A43,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>벨포드 만능 내식 컨버터</v>
-      </c>
-      <c r="C43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>173</v>
-      </c>
-      <c r="B44" s="11" t="str">
-        <f>VLOOKUP(A44,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 초기형 카트리지</v>
-      </c>
-      <c r="C44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
-        <v>174</v>
-      </c>
-      <c r="B45" s="11" t="str">
-        <f>VLOOKUP(A45,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>라다 붕괴 카트리지</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
-        <v>183</v>
-      </c>
-      <c r="B46" s="11" t="str">
-        <f>VLOOKUP(A46,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>벨포드 붕괴 카트리지</v>
-      </c>
-      <c r="C46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>192</v>
-      </c>
-      <c r="B47" s="11" t="str">
-        <f>VLOOKUP(A47,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>아크 붕괴 카트리지</v>
-      </c>
-      <c r="C47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>201</v>
-      </c>
-      <c r="B48" s="11" t="str">
-        <f>VLOOKUP(A48,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 강화섬유 라이너</v>
-      </c>
-      <c r="C48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
-        <v>210</v>
-      </c>
-      <c r="B49" s="11" t="str">
-        <f>VLOOKUP(A49,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>공방연합 인증 라이너</v>
-      </c>
-      <c r="C49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
-        <v>211</v>
-      </c>
-      <c r="B50" s="11" t="str">
-        <f>VLOOKUP(A50,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>라다 강화섬유 라이너</v>
-      </c>
-      <c r="C50" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
-        <v>220</v>
-      </c>
-      <c r="B51" s="11" t="str">
-        <f>VLOOKUP(A51,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>벨포드 강화섬유 라이너</v>
-      </c>
-      <c r="C51" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
-        <v>229</v>
-      </c>
-      <c r="B52" s="11" t="str">
-        <f>VLOOKUP(A52,Sheet2!$A$3:$B$343,2,FALSE)</f>
-        <v>아크 강화섬유 라이너</v>
-      </c>
-      <c r="C52" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B52">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B2:B42">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
